--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/2.2.ER_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/2.2.ER_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EA807-E7B7-46F1-BFC5-74D1F5C906EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -41,23 +42,29 @@
     <definedName name="Tabla_mes">Variables!$Y$8:$Z$19</definedName>
     <definedName name="VE_CO2">Factores!$F$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Cordova Rau Alfonso</author>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1" shapeId="0">
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1319,17 +1326,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="171" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43" x14ac:knownFonts="1">
     <font>
@@ -2391,7 +2398,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2541,21 +2548,21 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="10" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="10" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="10" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2580,7 +2587,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2590,11 +2597,8 @@
     <xf numFmtId="11" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="29" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2608,6 +2612,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="37" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="41" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2665,11 +2699,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2683,8 +2714,11 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2740,42 +2774,15 @@
     <xf numFmtId="0" fontId="37" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="27" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="37" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="4"/>
+    <cellStyle name="Normal 10 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2797,7 +2804,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2869,7 +2876,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2905,7 +2912,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-239A-4180-9E5B-5D39FF0566EC}"/>
               </c:ext>
@@ -2925,7 +2932,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-239A-4180-9E5B-5D39FF0566EC}"/>
               </c:ext>
@@ -2945,7 +2952,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-239A-4180-9E5B-5D39FF0566EC}"/>
               </c:ext>
@@ -2965,7 +2972,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-239A-4180-9E5B-5D39FF0566EC}"/>
               </c:ext>
@@ -2985,7 +2992,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-239A-4180-9E5B-5D39FF0566EC}"/>
               </c:ext>
@@ -3005,7 +3012,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-239A-4180-9E5B-5D39FF0566EC}"/>
               </c:ext>
@@ -3026,12 +3033,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-239A-4180-9E5B-5D39FF0566EC}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3061,7 +3066,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3085,10 +3090,8 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3144,7 +3147,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-239A-4180-9E5B-5D39FF0566EC}"/>
             </c:ext>
@@ -3206,7 +3209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3236,7 +3239,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3248,7 +3251,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3320,7 +3323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3356,7 +3359,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9A66-4865-8F87-95A03E26ADA9}"/>
               </c:ext>
@@ -3376,7 +3379,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-9A66-4865-8F87-95A03E26ADA9}"/>
               </c:ext>
@@ -3396,7 +3399,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-9A66-4865-8F87-95A03E26ADA9}"/>
               </c:ext>
@@ -3416,7 +3419,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-9A66-4865-8F87-95A03E26ADA9}"/>
               </c:ext>
@@ -3436,7 +3439,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-9A66-4865-8F87-95A03E26ADA9}"/>
               </c:ext>
@@ -3456,7 +3459,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9A66-4865-8F87-95A03E26ADA9}"/>
               </c:ext>
@@ -3477,12 +3480,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-9A66-4865-8F87-95A03E26ADA9}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3500,12 +3501,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-9A66-4865-8F87-95A03E26ADA9}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3543,7 +3542,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="es-PE"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -3552,10 +3551,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-9A66-4865-8F87-95A03E26ADA9}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -3563,6 +3559,9 @@
                       <c:h val="9.4907407407407413E-2"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9A66-4865-8F87-95A03E26ADA9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3580,12 +3579,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-9A66-4865-8F87-95A03E26ADA9}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3615,7 +3612,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3639,10 +3636,8 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3698,7 +3693,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-9A66-4865-8F87-95A03E26ADA9}"/>
             </c:ext>
@@ -3760,7 +3755,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3790,7 +3785,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3802,7 +3797,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3874,7 +3869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3910,7 +3905,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A835-4CB6-BBDB-DA57FAB3024B}"/>
               </c:ext>
@@ -3930,7 +3925,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A835-4CB6-BBDB-DA57FAB3024B}"/>
               </c:ext>
@@ -3950,7 +3945,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-A835-4CB6-BBDB-DA57FAB3024B}"/>
               </c:ext>
@@ -3970,7 +3965,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-A835-4CB6-BBDB-DA57FAB3024B}"/>
               </c:ext>
@@ -3990,7 +3985,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-A835-4CB6-BBDB-DA57FAB3024B}"/>
               </c:ext>
@@ -4010,7 +4005,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-A835-4CB6-BBDB-DA57FAB3024B}"/>
               </c:ext>
@@ -4043,7 +4038,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4067,10 +4062,8 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4126,7 +4119,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-A835-4CB6-BBDB-DA57FAB3024B}"/>
             </c:ext>
@@ -4188,7 +4181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4218,7 +4211,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5923,7 +5916,7 @@
             <xdr:cNvPr id="2" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6421,7 +6414,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6457,7 +6450,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6495,7 +6488,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6533,7 +6526,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6576,7 +6569,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2266D9F-FDE7-4442-AF88-31B651775AC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2266D9F-FDE7-4442-AF88-31B651775AC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6624,7 +6617,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7087,7 +7080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:H23"/>
   <sheetViews>
@@ -7118,38 +7111,38 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="122"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="133"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="136"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="139"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118" t="s">
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="118"/>
+      <c r="G8" s="129"/>
       <c r="H8" s="52" t="s">
         <v>3</v>
       </c>
@@ -7158,15 +7151,15 @@
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119" t="s">
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="119"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
@@ -7177,19 +7170,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="117"/>
+      <c r="G12" s="128"/>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="46"/>
-      <c r="D13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
+      <c r="D13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -7295,7 +7288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:G16"/>
   <sheetViews>
@@ -7324,14 +7317,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
@@ -7404,17 +7397,17 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="132"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="143"/>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="144" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -7432,7 +7425,7 @@
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B13" s="134"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="36" t="s">
         <v>57</v>
       </c>
@@ -7448,7 +7441,7 @@
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B14" s="135"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="36" t="s">
         <v>58</v>
       </c>
@@ -7514,12 +7507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7546,17 +7539,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="142"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
@@ -7637,10 +7630,10 @@
       <c r="G7" t="s">
         <v>119</v>
       </c>
-      <c r="Y7" s="161" t="s">
+      <c r="Y7" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" s="162" t="s">
+      <c r="Z7" s="117" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7656,14 +7649,14 @@
       </c>
     </row>
     <row r="9" spans="2:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
       <c r="Y9" s="39" t="s">
         <v>168</v>
       </c>
@@ -7672,7 +7665,7 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="142"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
@@ -7785,15 +7778,15 @@
       <c r="B15" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="172">
         <f>E36*C11+G36*C12+I36*C13+K36*C14</f>
         <v>7.0994245102127245E-3</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="172">
         <f>D11*E52+G52*D12+I52*D13+K52*D14</f>
         <v>6.7900396329833449E-3</v>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="172">
         <f>E42*E11+G42*E12+I42*E13+K42*E14</f>
         <v>1.4353531019967596E-2</v>
       </c>
@@ -8015,34 +8008,34 @@
       <c r="C24" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="141"/>
-      <c r="F24" s="140" t="s">
+      <c r="E24" s="151"/>
+      <c r="F24" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="141"/>
-      <c r="H24" s="140" t="s">
+      <c r="G24" s="151"/>
+      <c r="H24" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="141"/>
-      <c r="J24" s="140" t="s">
+      <c r="I24" s="151"/>
+      <c r="J24" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="141"/>
-      <c r="L24" s="140" t="s">
+      <c r="K24" s="151"/>
+      <c r="L24" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="141"/>
-      <c r="N24" s="140" t="s">
+      <c r="M24" s="151"/>
+      <c r="N24" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="141"/>
-      <c r="P24" s="140" t="s">
+      <c r="O24" s="151"/>
+      <c r="P24" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="Q24" s="141"/>
+      <c r="Q24" s="151"/>
       <c r="S24" s="45" t="s">
         <v>74</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="41">
-        <f t="shared" ref="E25:E51" si="8">D26/$P26</f>
+        <f t="shared" ref="E26:E51" si="8">D26/$P26</f>
         <v>0.90476190476190477</v>
       </c>
       <c r="F26" s="40">
@@ -8831,10 +8824,10 @@
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="139"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="89">
         <f>SUM(D25:D35)</f>
         <v>31</v>
@@ -9183,10 +9176,10 @@
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="139"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="89">
         <f>SUM(D37:D41)</f>
         <v>17</v>
@@ -9767,10 +9760,10 @@
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="139"/>
+      <c r="C52" s="149"/>
       <c r="D52" s="89">
         <f>SUM(D43:D51)</f>
         <v>1271</v>
@@ -9829,10 +9822,10 @@
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="136" t="s">
+      <c r="B53" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="137"/>
+      <c r="C53" s="153"/>
       <c r="D53" s="91">
         <f>D36+D42+D52</f>
         <v>1319</v>
@@ -9900,25 +9893,25 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="E54" r:id="rId2" location="/login "/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E54" r:id="rId2" location="/login " xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -9928,12 +9921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9951,20 +9944,20 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168"/>
       <c r="H2" s="21" t="s">
         <v>19</v>
       </c>
@@ -9976,9 +9969,9 @@
       <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="149"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="154"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="61" t="s">
         <v>33</v>
       </c>
@@ -10137,10 +10130,10 @@
         <f>G15*1000</f>
         <v>3118.9747079505501</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="159"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="85">
         <f>0.31516/1000000</f>
         <v>3.1515999999999997E-7</v>
@@ -10165,8 +10158,8 @@
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
@@ -10237,7 +10230,7 @@
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="157" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="98">
@@ -10248,7 +10241,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="147"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="103">
         <f>C19*30.41*0.264172</f>
         <v>8.0334705199999998</v>
@@ -10259,7 +10252,7 @@
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="154" t="s">
         <v>159</v>
       </c>
       <c r="C22" s="98">
@@ -10270,7 +10263,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="144"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="97">
         <f>C22*30.41/1000</f>
         <v>2.4328000000000003</v>
@@ -10280,7 +10273,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="145"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="101">
         <f>C23/1000000/'[2]Fact. con.'!$E$95</f>
         <v>0.77431056585061875</v>
@@ -10295,49 +10288,49 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="116" t="s">
+      <c r="E28" s="115" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="39">
         <v>1</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="114">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="39">
         <v>2</v>
       </c>
-      <c r="D30" s="115" t="s">
+      <c r="D30" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="115">
+      <c r="E30" s="114">
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="39">
         <v>3</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="115">
+      <c r="E31" s="114">
         <v>1.435E-2</v>
       </c>
     </row>
@@ -10457,7 +10450,7 @@
     <mergeCell ref="F7:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10466,161 +10459,162 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="160" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="171" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="166" t="s">
+      <c r="F5" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="160"/>
+      <c r="G5" s="171"/>
     </row>
     <row r="6" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171" t="s">
+      <c r="C6" s="126"/>
+      <c r="D6" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="171" t="s">
+      <c r="E6" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="172" t="s">
+      <c r="G6" s="127" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="167">
+      <c r="B7" s="122">
         <v>2016</v>
       </c>
-      <c r="C7" s="167">
+      <c r="C7" s="122">
         <f>VLOOKUP(D7,Tabla_mes,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="167">
+      <c r="F7" s="122">
         <v>750</v>
       </c>
-      <c r="G7" s="169">
+      <c r="G7" s="124">
         <f>Variables!$C$15*12*F7*C7/12</f>
         <v>42.596547061276347</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="167">
+      <c r="B8" s="122">
         <v>2016</v>
       </c>
-      <c r="C8" s="167">
+      <c r="C8" s="122">
         <f>VLOOKUP(D8,Tabla_mes,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="167">
+      <c r="F8" s="122">
         <v>2560</v>
       </c>
-      <c r="G8" s="169">
+      <c r="G8" s="124">
         <f>Variables!$D$15*12*F8*C8/12</f>
         <v>121.67751022306153</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="167">
+      <c r="B9" s="122">
         <v>2016</v>
       </c>
-      <c r="C9" s="167">
+      <c r="C9" s="122">
         <f>VLOOKUP(D9,Tabla_mes,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="167">
+      <c r="F9" s="122">
         <v>480</v>
       </c>
-      <c r="G9" s="169">
+      <c r="G9" s="124">
         <f>Variables!$E$15*12*F9*C9/12</f>
         <v>13.77938977916889</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="170">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="125">
         <f>SUM(G7:G9)</f>
         <v>178.05344706350678</v>
       </c>
@@ -10630,10 +10624,10 @@
     <mergeCell ref="G4:G5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Regiones</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D9" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>Lista_meses</formula1>
     </dataValidation>
   </dataValidations>
